--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H2">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I2">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J2">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.395945</v>
+        <v>0.2748245</v>
       </c>
       <c r="N2">
-        <v>0.79189</v>
+        <v>0.5496490000000001</v>
       </c>
       <c r="O2">
-        <v>0.2058936758114299</v>
+        <v>0.03662622326410777</v>
       </c>
       <c r="P2">
-        <v>0.1897032408784864</v>
+        <v>0.02586091015983921</v>
       </c>
       <c r="Q2">
-        <v>19.9358218412375</v>
+        <v>20.633811367722</v>
       </c>
       <c r="R2">
-        <v>79.74328736494999</v>
+        <v>82.53524547088801</v>
       </c>
       <c r="S2">
-        <v>0.02626339306655222</v>
+        <v>0.005428540593701896</v>
       </c>
       <c r="T2">
-        <v>0.01785673193051547</v>
+        <v>0.002836762045300712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H3">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I3">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J3">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08066233333333332</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N3">
         <v>0.241987</v>
       </c>
       <c r="O3">
-        <v>0.04194487696404003</v>
+        <v>0.01074997545586565</v>
       </c>
       <c r="P3">
-        <v>0.05796981670492402</v>
+        <v>0.011385455202955</v>
       </c>
       <c r="Q3">
-        <v>4.061346668430832</v>
+        <v>6.056124437524001</v>
       </c>
       <c r="R3">
-        <v>24.368080010585</v>
+        <v>36.33674662514401</v>
       </c>
       <c r="S3">
-        <v>0.005350406157417295</v>
+        <v>0.001593303183969091</v>
       </c>
       <c r="T3">
-        <v>0.005456688415903278</v>
+        <v>0.001248905277834006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H4">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I4">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J4">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1821076666666667</v>
+        <v>0.2234946666666667</v>
       </c>
       <c r="N4">
-        <v>0.546323</v>
+        <v>0.6704840000000001</v>
       </c>
       <c r="O4">
-        <v>0.09469703338454234</v>
+        <v>0.02978542873605038</v>
       </c>
       <c r="P4">
-        <v>0.1308758080875593</v>
+        <v>0.03154618035802782</v>
       </c>
       <c r="Q4">
-        <v>9.169116919244166</v>
+        <v>16.77996973956801</v>
       </c>
       <c r="R4">
-        <v>55.01470151546499</v>
+        <v>100.679818437408</v>
       </c>
       <c r="S4">
-        <v>0.01207936766495179</v>
+        <v>0.004414635050644589</v>
       </c>
       <c r="T4">
-        <v>0.01231931626674791</v>
+        <v>0.003460396658924882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H5">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I5">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J5">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19886</v>
+        <v>0.9815985</v>
       </c>
       <c r="N5">
-        <v>2.39772</v>
+        <v>1.963197</v>
       </c>
       <c r="O5">
-        <v>0.6234140908037503</v>
+        <v>0.1308189255932906</v>
       </c>
       <c r="P5">
-        <v>0.5743919669640535</v>
+        <v>0.09236814993398669</v>
       </c>
       <c r="Q5">
-        <v>60.36257402565</v>
+        <v>73.69837218966602</v>
       </c>
       <c r="R5">
-        <v>241.4502961026</v>
+        <v>294.7934887586641</v>
       </c>
       <c r="S5">
-        <v>0.07952147750765082</v>
+        <v>0.01938927316875639</v>
       </c>
       <c r="T5">
-        <v>0.05406741249976076</v>
+        <v>0.01013214385371068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H6">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I6">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J6">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03486066666666666</v>
+        <v>5.797556</v>
       </c>
       <c r="N6">
-        <v>0.104582</v>
+        <v>17.392668</v>
       </c>
       <c r="O6">
-        <v>0.01812774703869727</v>
+        <v>0.772647927830916</v>
       </c>
       <c r="P6">
-        <v>0.02505340935932246</v>
+        <v>0.8183226469763617</v>
       </c>
       <c r="Q6">
-        <v>1.755233782301666</v>
+        <v>435.2802493875361</v>
       </c>
       <c r="R6">
-        <v>10.53140269381</v>
+        <v>2611.681496325216</v>
       </c>
       <c r="S6">
-        <v>0.002312339823027748</v>
+        <v>0.1145176943477018</v>
       </c>
       <c r="T6">
-        <v>0.002358272915123526</v>
+        <v>0.08976430494536737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H7">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I7">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J7">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03062</v>
+        <v>0.145354</v>
       </c>
       <c r="N7">
-        <v>0.09186</v>
+        <v>0.4360619999999999</v>
       </c>
       <c r="O7">
-        <v>0.01592257599754002</v>
+        <v>0.0193715191197696</v>
       </c>
       <c r="P7">
-        <v>0.02200575800565452</v>
+        <v>0.02051665736882957</v>
       </c>
       <c r="Q7">
-        <v>1.54171631105</v>
+        <v>10.913171924424</v>
       </c>
       <c r="R7">
-        <v>9.250297866299999</v>
+        <v>65.47903154654401</v>
       </c>
       <c r="S7">
-        <v>0.002031052534311152</v>
+        <v>0.002871141726654447</v>
       </c>
       <c r="T7">
-        <v>0.002071398041567833</v>
+        <v>0.002250534670303992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>238.295841</v>
       </c>
       <c r="I8">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J8">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.395945</v>
+        <v>0.2748245</v>
       </c>
       <c r="N8">
-        <v>0.79189</v>
+        <v>0.5496490000000001</v>
       </c>
       <c r="O8">
-        <v>0.2058936758114299</v>
+        <v>0.03662622326410777</v>
       </c>
       <c r="P8">
-        <v>0.1897032408784864</v>
+        <v>0.02586091015983921</v>
       </c>
       <c r="Q8">
-        <v>31.450682254915</v>
+        <v>21.8298451183015</v>
       </c>
       <c r="R8">
-        <v>188.70409352949</v>
+        <v>130.979070709809</v>
       </c>
       <c r="S8">
-        <v>0.04143303631272812</v>
+        <v>0.005743204600789555</v>
       </c>
       <c r="T8">
-        <v>0.04225607601208698</v>
+        <v>0.00450179137892551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>238.295841</v>
       </c>
       <c r="I9">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J9">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.08066233333333332</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N9">
         <v>0.241987</v>
       </c>
       <c r="O9">
-        <v>0.04194487696404003</v>
+        <v>0.01074997545586565</v>
       </c>
       <c r="P9">
-        <v>0.05796981670492402</v>
+        <v>0.011385455202955</v>
       </c>
       <c r="Q9">
         <v>6.407166186229666</v>
       </c>
       <c r="R9">
-        <v>57.66449567606699</v>
+        <v>57.664495676067</v>
       </c>
       <c r="S9">
-        <v>0.008440781891599539</v>
+        <v>0.001685658607258162</v>
       </c>
       <c r="T9">
-        <v>0.01291267861184873</v>
+        <v>0.001981946643061385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>238.295841</v>
       </c>
       <c r="I10">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J10">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1821076666666667</v>
+        <v>0.2234946666666667</v>
       </c>
       <c r="N10">
-        <v>0.546323</v>
+        <v>0.6704840000000001</v>
       </c>
       <c r="O10">
-        <v>0.09469703338454234</v>
+        <v>0.02978542873605038</v>
       </c>
       <c r="P10">
-        <v>0.1308758080875593</v>
+        <v>0.03154618035802782</v>
       </c>
       <c r="Q10">
-        <v>14.46516652696033</v>
+        <v>17.75261651744934</v>
       </c>
       <c r="R10">
-        <v>130.186498742643</v>
+        <v>159.773548657044</v>
       </c>
       <c r="S10">
-        <v>0.01905636784357976</v>
+        <v>0.004670528274778734</v>
       </c>
       <c r="T10">
-        <v>0.02915236486778643</v>
+        <v>0.005491466537567596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>238.295841</v>
       </c>
       <c r="I11">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J11">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.19886</v>
+        <v>0.9815985</v>
       </c>
       <c r="N11">
-        <v>2.39772</v>
+        <v>1.963197</v>
       </c>
       <c r="O11">
-        <v>0.6234140908037503</v>
+        <v>0.1308189255932906</v>
       </c>
       <c r="P11">
-        <v>0.5743919669640535</v>
+        <v>0.09236814993398669</v>
       </c>
       <c r="Q11">
-        <v>95.22778398042</v>
+        <v>77.9702800272795</v>
       </c>
       <c r="R11">
-        <v>571.36670388252</v>
+        <v>467.821680163677</v>
       </c>
       <c r="S11">
-        <v>0.1254528025707541</v>
+        <v>0.02051316757177081</v>
       </c>
       <c r="T11">
-        <v>0.1279448390252449</v>
+        <v>0.01607917658311472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>238.295841</v>
       </c>
       <c r="I12">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J12">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.03486066666666666</v>
+        <v>5.797556</v>
       </c>
       <c r="N12">
-        <v>0.104582</v>
+        <v>17.392668</v>
       </c>
       <c r="O12">
-        <v>0.01812774703869727</v>
+        <v>0.772647927830916</v>
       </c>
       <c r="P12">
-        <v>0.02505340935932246</v>
+        <v>0.8183226469763617</v>
       </c>
       <c r="Q12">
-        <v>2.769050627051333</v>
+        <v>460.511160921532</v>
       </c>
       <c r="R12">
-        <v>24.921455643462</v>
+        <v>4144.600448293788</v>
       </c>
       <c r="S12">
-        <v>0.003647939152877068</v>
+        <v>0.1211556840548608</v>
       </c>
       <c r="T12">
-        <v>0.005580604555552008</v>
+        <v>0.1424512058766842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>238.295841</v>
       </c>
       <c r="I13">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J13">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03062</v>
+        <v>0.145354</v>
       </c>
       <c r="N13">
-        <v>0.09186</v>
+        <v>0.4360619999999999</v>
       </c>
       <c r="O13">
-        <v>0.01592257599754002</v>
+        <v>0.0193715191197696</v>
       </c>
       <c r="P13">
-        <v>0.02200575800565452</v>
+        <v>0.02051665736882957</v>
       </c>
       <c r="Q13">
-        <v>2.43220621714</v>
+        <v>11.545751224238</v>
       </c>
       <c r="R13">
-        <v>21.88985595426</v>
+        <v>103.911761018142</v>
       </c>
       <c r="S13">
-        <v>0.003204181317849032</v>
+        <v>0.003037566743660645</v>
       </c>
       <c r="T13">
-        <v>0.004901745371794454</v>
+        <v>0.003571479530167462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H14">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I14">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J14">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.395945</v>
+        <v>0.2748245</v>
       </c>
       <c r="N14">
-        <v>0.79189</v>
+        <v>0.5496490000000001</v>
       </c>
       <c r="O14">
-        <v>0.2058936758114299</v>
+        <v>0.03662622326410777</v>
       </c>
       <c r="P14">
-        <v>0.1897032408784864</v>
+        <v>0.02586091015983921</v>
       </c>
       <c r="Q14">
-        <v>32.97705405738333</v>
+        <v>27.31202106743534</v>
       </c>
       <c r="R14">
-        <v>197.8623243443</v>
+        <v>163.872126404612</v>
       </c>
       <c r="S14">
-        <v>0.04344387403655878</v>
+        <v>0.007185507922813906</v>
       </c>
       <c r="T14">
-        <v>0.04430685768941382</v>
+        <v>0.005632335928912847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H15">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I15">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J15">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.08066233333333332</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N15">
         <v>0.241987</v>
       </c>
       <c r="O15">
-        <v>0.04194487696404003</v>
+        <v>0.01074997545586565</v>
       </c>
       <c r="P15">
-        <v>0.05796981670492402</v>
+        <v>0.011385455202955</v>
       </c>
       <c r="Q15">
-        <v>6.718120260965554</v>
+        <v>8.016211609039557</v>
       </c>
       <c r="R15">
-        <v>60.46308234868999</v>
+        <v>72.145904481356</v>
       </c>
       <c r="S15">
-        <v>0.00885043187520552</v>
+        <v>0.002108981678268578</v>
       </c>
       <c r="T15">
-        <v>0.01353935972381035</v>
+        <v>0.002479677165663602</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H16">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I16">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J16">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1821076666666667</v>
+        <v>0.2234946666666667</v>
       </c>
       <c r="N16">
-        <v>0.546323</v>
+        <v>0.6704840000000001</v>
       </c>
       <c r="O16">
-        <v>0.09469703338454234</v>
+        <v>0.02978542873605038</v>
       </c>
       <c r="P16">
-        <v>0.1308758080875593</v>
+        <v>0.03154618035802782</v>
       </c>
       <c r="Q16">
-        <v>15.16719334233444</v>
+        <v>22.21086928006578</v>
       </c>
       <c r="R16">
-        <v>136.50474008101</v>
+        <v>199.897823520592</v>
       </c>
       <c r="S16">
-        <v>0.01998121590563917</v>
+        <v>0.005843448084286468</v>
       </c>
       <c r="T16">
-        <v>0.03056719419799925</v>
+        <v>0.006870550338418157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H17">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I17">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J17">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.19886</v>
+        <v>0.9815985</v>
       </c>
       <c r="N17">
-        <v>2.39772</v>
+        <v>1.963197</v>
       </c>
       <c r="O17">
-        <v>0.6234140908037503</v>
+        <v>0.1308189255932906</v>
       </c>
       <c r="P17">
-        <v>0.5743919669640535</v>
+        <v>0.09236814993398669</v>
       </c>
       <c r="Q17">
-        <v>99.84940086939999</v>
+        <v>97.55112412380601</v>
       </c>
       <c r="R17">
-        <v>599.0964052163999</v>
+        <v>585.306744742836</v>
       </c>
       <c r="S17">
-        <v>0.131541307069085</v>
+        <v>0.02566468345715991</v>
       </c>
       <c r="T17">
-        <v>0.1341542876145188</v>
+        <v>0.02011717477632801</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H18">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I18">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J18">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03486066666666666</v>
+        <v>5.797556</v>
       </c>
       <c r="N18">
-        <v>0.104582</v>
+        <v>17.392668</v>
       </c>
       <c r="O18">
-        <v>0.01812774703869727</v>
+        <v>0.772647927830916</v>
       </c>
       <c r="P18">
-        <v>0.02505340935932246</v>
+        <v>0.8183226469763617</v>
       </c>
       <c r="Q18">
-        <v>2.903438834037777</v>
+        <v>576.1603190823093</v>
       </c>
       <c r="R18">
-        <v>26.13094950634</v>
+        <v>5185.442871740785</v>
       </c>
       <c r="S18">
-        <v>0.003824981781553322</v>
+        <v>0.1515817715340419</v>
       </c>
       <c r="T18">
-        <v>0.005851443749604459</v>
+        <v>0.1782252835465047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H19">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I19">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J19">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03062</v>
+        <v>0.145354</v>
       </c>
       <c r="N19">
-        <v>0.09186</v>
+        <v>0.4360619999999999</v>
       </c>
       <c r="O19">
-        <v>0.01592257599754002</v>
+        <v>0.0193715191197696</v>
       </c>
       <c r="P19">
-        <v>0.02200575800565452</v>
+        <v>0.02051665736882957</v>
       </c>
       <c r="Q19">
-        <v>2.550246613133333</v>
+        <v>14.44526055805066</v>
       </c>
       <c r="R19">
-        <v>22.9522195182</v>
+        <v>130.007345022456</v>
       </c>
       <c r="S19">
-        <v>0.003359687388398464</v>
+        <v>0.003800397412212857</v>
       </c>
       <c r="T19">
-        <v>0.005139638014559539</v>
+        <v>0.004468392864962174</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H20">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I20">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J20">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.395945</v>
+        <v>0.2748245</v>
       </c>
       <c r="N20">
-        <v>0.79189</v>
+        <v>0.5496490000000001</v>
       </c>
       <c r="O20">
-        <v>0.2058936758114299</v>
+        <v>0.03662622326410777</v>
       </c>
       <c r="P20">
-        <v>0.1897032408784864</v>
+        <v>0.02586091015983921</v>
       </c>
       <c r="Q20">
-        <v>25.3474876325825</v>
+        <v>20.80355438413875</v>
       </c>
       <c r="R20">
-        <v>101.38995053033</v>
+        <v>83.21421753655501</v>
       </c>
       <c r="S20">
-        <v>0.03339270566548973</v>
+        <v>0.005473198211177123</v>
       </c>
       <c r="T20">
-        <v>0.02270401969738839</v>
+        <v>0.002860098526275775</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H21">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I21">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J21">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.08066233333333332</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N21">
         <v>0.241987</v>
       </c>
       <c r="O21">
-        <v>0.04194487696404003</v>
+        <v>0.01074997545586565</v>
       </c>
       <c r="P21">
-        <v>0.05796981670492402</v>
+        <v>0.011385455202955</v>
       </c>
       <c r="Q21">
-        <v>5.163816935639832</v>
+        <v>6.1059448420775</v>
       </c>
       <c r="R21">
-        <v>30.98290161383899</v>
+        <v>36.635669052465</v>
       </c>
       <c r="S21">
-        <v>0.006802797245303315</v>
+        <v>0.0016064104128612</v>
       </c>
       <c r="T21">
-        <v>0.006937930286418473</v>
+        <v>0.001259179334589703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H22">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I22">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J22">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1821076666666667</v>
+        <v>0.2234946666666667</v>
       </c>
       <c r="N22">
-        <v>0.546323</v>
+        <v>0.6704840000000001</v>
       </c>
       <c r="O22">
-        <v>0.09469703338454234</v>
+        <v>0.02978542873605038</v>
       </c>
       <c r="P22">
-        <v>0.1308758080875593</v>
+        <v>0.03154618035802782</v>
       </c>
       <c r="Q22">
-        <v>11.65811369920517</v>
+        <v>16.91800932073</v>
       </c>
       <c r="R22">
-        <v>69.948682195231</v>
+        <v>101.50805592438</v>
       </c>
       <c r="S22">
-        <v>0.01535836470325201</v>
+        <v>0.004450951824919639</v>
       </c>
       <c r="T22">
-        <v>0.01566344839957105</v>
+        <v>0.003488863438833668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H23">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I23">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J23">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.19886</v>
+        <v>0.9815985</v>
       </c>
       <c r="N23">
-        <v>2.39772</v>
+        <v>1.963197</v>
       </c>
       <c r="O23">
-        <v>0.6234140908037503</v>
+        <v>0.1308189255932906</v>
       </c>
       <c r="P23">
-        <v>0.5743919669640535</v>
+        <v>0.09236814993398669</v>
       </c>
       <c r="Q23">
-        <v>76.74825802370999</v>
+        <v>74.30464815960376</v>
       </c>
       <c r="R23">
-        <v>306.99303209484</v>
+        <v>297.218592638415</v>
       </c>
       <c r="S23">
-        <v>0.1011079294198159</v>
+        <v>0.01954877805397316</v>
       </c>
       <c r="T23">
-        <v>0.0687442474444962</v>
+        <v>0.01021549542797135</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H24">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I24">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J24">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.03486066666666666</v>
+        <v>5.797556</v>
       </c>
       <c r="N24">
-        <v>0.104582</v>
+        <v>17.392668</v>
       </c>
       <c r="O24">
-        <v>0.01812774703869727</v>
+        <v>0.772647927830916</v>
       </c>
       <c r="P24">
-        <v>0.02505340935932246</v>
+        <v>0.8183226469763617</v>
       </c>
       <c r="Q24">
-        <v>2.231699648175666</v>
+        <v>438.86106057171</v>
       </c>
       <c r="R24">
-        <v>13.390197889054</v>
+        <v>2633.16636343026</v>
       </c>
       <c r="S24">
-        <v>0.002940034553543419</v>
+        <v>0.1154597684282122</v>
       </c>
       <c r="T24">
-        <v>0.002998436383831432</v>
+        <v>0.09050274650695958</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H25">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I25">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J25">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.03062</v>
+        <v>0.145354</v>
       </c>
       <c r="N25">
-        <v>0.09186</v>
+        <v>0.4360619999999999</v>
       </c>
       <c r="O25">
-        <v>0.01592257599754002</v>
+        <v>0.0193715191197696</v>
       </c>
       <c r="P25">
-        <v>0.02200575800565452</v>
+        <v>0.02051665736882957</v>
       </c>
       <c r="Q25">
-        <v>1.96022192807</v>
+        <v>11.002948587015</v>
       </c>
       <c r="R25">
-        <v>11.76133156842</v>
+        <v>66.01769152208999</v>
       </c>
       <c r="S25">
-        <v>0.002582390603435567</v>
+        <v>0.002894761030357335</v>
       </c>
       <c r="T25">
-        <v>0.00263368807460897</v>
+        <v>0.002269048581121528</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H26">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I26">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J26">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.395945</v>
+        <v>0.2748245</v>
       </c>
       <c r="N26">
-        <v>0.79189</v>
+        <v>0.5496490000000001</v>
       </c>
       <c r="O26">
-        <v>0.2058936758114299</v>
+        <v>0.03662622326410777</v>
       </c>
       <c r="P26">
-        <v>0.1897032408784864</v>
+        <v>0.02586091015983921</v>
       </c>
       <c r="Q26">
-        <v>17.54691177039167</v>
+        <v>26.493772708793</v>
       </c>
       <c r="R26">
-        <v>105.28147062235</v>
+        <v>158.962636252758</v>
       </c>
       <c r="S26">
-        <v>0.02311624996450619</v>
+        <v>0.006970235312656753</v>
       </c>
       <c r="T26">
-        <v>0.02357543888992044</v>
+        <v>0.005463595226136729</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H27">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I27">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J27">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.08066233333333332</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N27">
         <v>0.241987</v>
       </c>
       <c r="O27">
-        <v>0.04194487696404003</v>
+        <v>0.01074997545586565</v>
       </c>
       <c r="P27">
-        <v>0.05796981670492402</v>
+        <v>0.011385455202955</v>
       </c>
       <c r="Q27">
-        <v>3.574675387222777</v>
+        <v>7.776051718439334</v>
       </c>
       <c r="R27">
-        <v>32.172078485005</v>
+        <v>69.984465465954</v>
       </c>
       <c r="S27">
-        <v>0.004709266842752536</v>
+        <v>0.002045798115529328</v>
       </c>
       <c r="T27">
-        <v>0.007204219942991045</v>
+        <v>0.002405387834758453</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H28">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I28">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J28">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1821076666666667</v>
+        <v>0.2234946666666667</v>
       </c>
       <c r="N28">
-        <v>0.546323</v>
+        <v>0.6704840000000001</v>
       </c>
       <c r="O28">
-        <v>0.09469703338454234</v>
+        <v>0.02978542873605038</v>
       </c>
       <c r="P28">
-        <v>0.1308758080875593</v>
+        <v>0.03154618035802782</v>
       </c>
       <c r="Q28">
-        <v>8.070381390627222</v>
+        <v>21.54544773225867</v>
       </c>
       <c r="R28">
-        <v>72.633432515645</v>
+        <v>193.909029590328</v>
       </c>
       <c r="S28">
-        <v>0.01063189671070386</v>
+        <v>0.005668382614324597</v>
       </c>
       <c r="T28">
-        <v>0.01626463839757795</v>
+        <v>0.006664713629245316</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H29">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I29">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J29">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.19886</v>
+        <v>0.9815985</v>
       </c>
       <c r="N29">
-        <v>2.39772</v>
+        <v>1.963197</v>
       </c>
       <c r="O29">
-        <v>0.6234140908037503</v>
+        <v>0.1308189255932906</v>
       </c>
       <c r="P29">
-        <v>0.5743919669640535</v>
+        <v>0.09236814993398669</v>
       </c>
       <c r="Q29">
-        <v>53.1293251463</v>
+        <v>94.628563138629</v>
       </c>
       <c r="R29">
-        <v>318.7759508778</v>
+        <v>567.771378831774</v>
       </c>
       <c r="S29">
-        <v>0.06999241670547146</v>
+        <v>0.02489578813952504</v>
       </c>
       <c r="T29">
-        <v>0.07138276949467735</v>
+        <v>0.01951447879858955</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H30">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I30">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J30">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.03486066666666666</v>
+        <v>5.797556</v>
       </c>
       <c r="N30">
-        <v>0.104582</v>
+        <v>17.392668</v>
       </c>
       <c r="O30">
-        <v>0.01812774703869727</v>
+        <v>0.772647927830916</v>
       </c>
       <c r="P30">
-        <v>0.02505340935932246</v>
+        <v>0.8183226469763617</v>
       </c>
       <c r="Q30">
-        <v>1.544904070658889</v>
+        <v>558.898973455784</v>
       </c>
       <c r="R30">
-        <v>13.90413663593</v>
+        <v>5030.090761102056</v>
       </c>
       <c r="S30">
-        <v>0.002035252079445366</v>
+        <v>0.1470404915075076</v>
       </c>
       <c r="T30">
-        <v>0.003113521511808028</v>
+        <v>0.1728857832081584</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H31">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I31">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J31">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.03062</v>
+        <v>0.145354</v>
       </c>
       <c r="N31">
-        <v>0.09186</v>
+        <v>0.4360619999999999</v>
       </c>
       <c r="O31">
-        <v>0.01592257599754002</v>
+        <v>0.0193715191197696</v>
       </c>
       <c r="P31">
-        <v>0.02200575800565452</v>
+        <v>0.02051665736882957</v>
       </c>
       <c r="Q31">
-        <v>1.356972403766667</v>
+        <v>14.012491019956</v>
       </c>
       <c r="R31">
-        <v>12.2127516339</v>
+        <v>126.112419179604</v>
       </c>
       <c r="S31">
-        <v>0.001787671454149388</v>
+        <v>0.003686540259823667</v>
       </c>
       <c r="T31">
-        <v>0.002734773537269181</v>
+        <v>0.00433452305289309</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H32">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I32">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J32">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.395945</v>
+        <v>0.2748245</v>
       </c>
       <c r="N32">
-        <v>0.79189</v>
+        <v>0.5496490000000001</v>
       </c>
       <c r="O32">
-        <v>0.2058936758114299</v>
+        <v>0.03662622326410777</v>
       </c>
       <c r="P32">
-        <v>0.1897032408784864</v>
+        <v>0.02586091015983921</v>
       </c>
       <c r="Q32">
-        <v>29.03028855140333</v>
+        <v>22.142788051276</v>
       </c>
       <c r="R32">
-        <v>174.18173130842</v>
+        <v>132.856728307656</v>
       </c>
       <c r="S32">
-        <v>0.03824441676559491</v>
+        <v>0.005825536622968536</v>
       </c>
       <c r="T32">
-        <v>0.03900411665916126</v>
+        <v>0.004566327054287639</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H33">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I33">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J33">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2483,28 +2483,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M33">
-        <v>0.08066233333333332</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N33">
         <v>0.241987</v>
       </c>
       <c r="O33">
-        <v>0.04194487696404003</v>
+        <v>0.01074997545586565</v>
       </c>
       <c r="P33">
-        <v>0.05796981670492402</v>
+        <v>0.011385455202955</v>
       </c>
       <c r="Q33">
-        <v>5.914081026142887</v>
+        <v>6.499016465858666</v>
       </c>
       <c r="R33">
-        <v>53.22672923528599</v>
+        <v>58.491148192728</v>
       </c>
       <c r="S33">
-        <v>0.007791192951761831</v>
+        <v>0.001709823457979289</v>
       </c>
       <c r="T33">
-        <v>0.01191893972395213</v>
+        <v>0.002010358947047848</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H34">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I34">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J34">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.1821076666666667</v>
+        <v>0.2234946666666667</v>
       </c>
       <c r="N34">
-        <v>0.546323</v>
+        <v>0.6704840000000001</v>
       </c>
       <c r="O34">
-        <v>0.09469703338454234</v>
+        <v>0.02978542873605038</v>
       </c>
       <c r="P34">
-        <v>0.1308758080875593</v>
+        <v>0.03154618035802782</v>
       </c>
       <c r="Q34">
-        <v>13.35195067687711</v>
+        <v>18.00711011787734</v>
       </c>
       <c r="R34">
-        <v>120.167556091894</v>
+        <v>162.063991060896</v>
       </c>
       <c r="S34">
-        <v>0.01758982055641576</v>
+        <v>0.004737482887096355</v>
       </c>
       <c r="T34">
-        <v>0.02690884595787667</v>
+        <v>0.005570189755038203</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H35">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I35">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J35">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.19886</v>
+        <v>0.9815985</v>
       </c>
       <c r="N35">
-        <v>2.39772</v>
+        <v>1.963197</v>
       </c>
       <c r="O35">
-        <v>0.6234140908037503</v>
+        <v>0.1308189255932906</v>
       </c>
       <c r="P35">
-        <v>0.5743919669640535</v>
+        <v>0.09236814993398669</v>
       </c>
       <c r="Q35">
-        <v>87.89920754836</v>
+        <v>79.088027220828</v>
       </c>
       <c r="R35">
-        <v>527.39524529016</v>
+        <v>474.528163324968</v>
       </c>
       <c r="S35">
-        <v>0.115798157530973</v>
+        <v>0.02080723520210527</v>
       </c>
       <c r="T35">
-        <v>0.1180984108853555</v>
+        <v>0.0163096804942724</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H36">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I36">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J36">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.03486066666666666</v>
+        <v>5.797556</v>
       </c>
       <c r="N36">
-        <v>0.104582</v>
+        <v>17.392668</v>
       </c>
       <c r="O36">
-        <v>0.01812774703869727</v>
+        <v>0.772647927830916</v>
       </c>
       <c r="P36">
-        <v>0.02505340935932246</v>
+        <v>0.8183226469763617</v>
       </c>
       <c r="Q36">
-        <v>2.555948963688444</v>
+        <v>467.112843736288</v>
       </c>
       <c r="R36">
-        <v>23.003540673196</v>
+        <v>4204.015593626592</v>
       </c>
       <c r="S36">
-        <v>0.003367199648250344</v>
+        <v>0.1228925179585917</v>
       </c>
       <c r="T36">
-        <v>0.005151130243403001</v>
+        <v>0.1444933228926876</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H37">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I37">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J37">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.03062</v>
+        <v>0.145354</v>
       </c>
       <c r="N37">
-        <v>0.09186</v>
+        <v>0.4360619999999999</v>
       </c>
       <c r="O37">
-        <v>0.01592257599754002</v>
+        <v>0.0193715191197696</v>
       </c>
       <c r="P37">
-        <v>0.02200575800565452</v>
+        <v>0.02051665736882957</v>
       </c>
       <c r="Q37">
-        <v>2.245027555453333</v>
+        <v>11.711265969392</v>
       </c>
       <c r="R37">
-        <v>20.20524799908</v>
+        <v>105.401393724528</v>
       </c>
       <c r="S37">
-        <v>0.002957592699396422</v>
+        <v>0.003081111947060646</v>
       </c>
       <c r="T37">
-        <v>0.004524514965854542</v>
+        <v>0.003622678669381325</v>
       </c>
     </row>
   </sheetData>
